--- a/diagnosa_x_intervensi.xlsx
+++ b/diagnosa_x_intervensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusup/Projects/node/react/sim-cpkp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E37F9B85-2991-EC46-A20B-CA4E6347EF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3599FF-EB02-B44A-AB72-E1729D11EC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{810CA097-E161-4948-8238-A0A93C309FD5}"/>
   </bookViews>
@@ -24020,7 +24020,7 @@
   <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/diagnosa_x_intervensi.xlsx
+++ b/diagnosa_x_intervensi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusup/Projects/node/react/sim-cpkp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3599FF-EB02-B44A-AB72-E1729D11EC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FC725D-6E30-6E48-8256-FABDBBD40021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{810CA097-E161-4948-8238-A0A93C309FD5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{810CA097-E161-4948-8238-A0A93C309FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="copy_db" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet4!$A$1:$K$271</definedName>
     <definedName name="Fuzzy_Merged_Data" localSheetId="2">Sheet4!$A$1:$K$271</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +46,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{8ABE0597-D1A2-1343-BC5C-099BBBC87201}" name="Fuzzy_Merged_Data" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/yusup/Downloads/Fuzzy_Merged_Data.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/yusup/Downloads/Fuzzy_Merged_Data.csv" decimal="," thousands="." comma="1">
       <textFields count="11">
         <textField type="text"/>
         <textField type="text"/>
@@ -2828,7 +2829,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -2931,7 +2932,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2947,6 +2948,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3157,74 +3164,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3295,6 +3302,11 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3635,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C4D204-4B2C-7E4A-8068-D572CBB59C85}">
   <dimension ref="A1:C271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3707,7 +3719,7 @@
       <c r="B6" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="49" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6636,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81ADED6-DC1A-3E47-83DF-509E0A88E491}">
   <dimension ref="A1:E214"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10305,8 +10317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F803475-5415-9145-A7F9-C9B25C1F3A4E}">
   <dimension ref="A1:K271"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10324,35 +10336,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="50" t="s">
         <v>717</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="50" t="s">
         <v>712</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="50" t="s">
         <v>713</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="50" t="s">
         <v>718</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="50" t="s">
         <v>422</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="50" t="s">
         <v>424</v>
       </c>
     </row>
@@ -10497,16 +10509,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>428</v>
-      </c>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="51" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="51" t="s">
         <v>719</v>
       </c>
     </row>
@@ -10721,16 +10733,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="51" t="s">
         <v>96</v>
       </c>
     </row>
@@ -10945,16 +10957,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="51" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11239,16 +11251,16 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="51" t="s">
         <v>456</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="51" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11323,16 +11335,16 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="51" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11372,16 +11384,16 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="51" t="s">
         <v>33</v>
       </c>
     </row>
@@ -11421,16 +11433,16 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="51" t="s">
         <v>35</v>
       </c>
     </row>
@@ -11470,16 +11482,16 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="51" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11589,30 +11601,30 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="51" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="51" t="s">
         <v>470</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="51" t="s">
         <v>42</v>
       </c>
     </row>
@@ -11757,16 +11769,16 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="51" t="s">
         <v>476</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="51" t="s">
         <v>47</v>
       </c>
     </row>
@@ -11841,16 +11853,16 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="51" t="s">
         <v>479</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="51" t="s">
         <v>50</v>
       </c>
     </row>
@@ -11925,16 +11937,16 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D54" s="47" t="s">
+      <c r="D54" s="51" t="s">
         <v>53</v>
       </c>
     </row>
@@ -11974,44 +11986,44 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="51" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="51" t="s">
         <v>485</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="51" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="51" t="s">
         <v>487</v>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="51" t="s">
         <v>441</v>
       </c>
     </row>
@@ -12436,30 +12448,30 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="51" t="s">
         <v>501</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C71" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D71" s="47" t="s">
+      <c r="D71" s="51" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="51" t="s">
         <v>503</v>
       </c>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C72" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D72" s="47" t="s">
+      <c r="D72" s="51" t="s">
         <v>71</v>
       </c>
     </row>
@@ -12499,156 +12511,156 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="47" t="s">
+      <c r="A74" s="51" t="s">
         <v>506</v>
       </c>
-      <c r="B74" s="47" t="s">
+      <c r="B74" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D74" s="47" t="s">
+      <c r="D74" s="51" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="47" t="s">
+      <c r="A75" s="51" t="s">
         <v>507</v>
       </c>
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D75" s="51" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="51" t="s">
         <v>508</v>
       </c>
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="47" t="s">
+      <c r="D76" s="51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="51" t="s">
         <v>509</v>
       </c>
-      <c r="B77" s="47" t="s">
+      <c r="B77" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C77" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D77" s="51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="51" t="s">
         <v>510</v>
       </c>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D78" s="47" t="s">
+      <c r="D78" s="51" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="51" t="s">
         <v>511</v>
       </c>
-      <c r="B79" s="47" t="s">
+      <c r="B79" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="47" t="s">
+      <c r="C79" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="47" t="s">
+      <c r="D79" s="51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="51" t="s">
         <v>512</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C80" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D80" s="47" t="s">
+      <c r="D80" s="51" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="51" t="s">
         <v>513</v>
       </c>
-      <c r="B81" s="47" t="s">
+      <c r="B81" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C81" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="D81" s="47" t="s">
+      <c r="D81" s="51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="51" t="s">
         <v>514</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C82" s="47" t="s">
+      <c r="C82" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="D82" s="47" t="s">
+      <c r="D82" s="51" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="B83" s="47" t="s">
+      <c r="B83" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D83" s="47" t="s">
+      <c r="D83" s="51" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="51" t="s">
         <v>516</v>
       </c>
-      <c r="B84" s="47" t="s">
+      <c r="B84" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C84" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D84" s="47" t="s">
+      <c r="D84" s="51" t="s">
         <v>83</v>
       </c>
     </row>
@@ -12688,30 +12700,30 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="51" t="s">
         <v>518</v>
       </c>
-      <c r="B86" s="47" t="s">
+      <c r="B86" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="47" t="s">
+      <c r="C86" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="47" t="s">
+      <c r="D86" s="51" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="51" t="s">
         <v>519</v>
       </c>
-      <c r="B87" s="47" t="s">
+      <c r="B87" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C87" s="47" t="s">
+      <c r="C87" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D87" s="47" t="s">
+      <c r="D87" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -12891,16 +12903,16 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="51" t="s">
         <v>525</v>
       </c>
-      <c r="B93" s="47" t="s">
+      <c r="B93" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C93" s="47" t="s">
+      <c r="C93" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="D93" s="47" t="s">
+      <c r="D93" s="51" t="s">
         <v>592</v>
       </c>
     </row>
@@ -13010,16 +13022,16 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="51" t="s">
         <v>529</v>
       </c>
-      <c r="B97" s="47" t="s">
+      <c r="B97" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C97" s="47" t="s">
+      <c r="C97" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D97" s="47" t="s">
+      <c r="D97" s="51" t="s">
         <v>96</v>
       </c>
     </row>
@@ -13059,16 +13071,16 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="51" t="s">
         <v>531</v>
       </c>
-      <c r="B99" s="47" t="s">
+      <c r="B99" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C99" s="47" t="s">
+      <c r="C99" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D99" s="47" t="s">
+      <c r="D99" s="51" t="s">
         <v>98</v>
       </c>
     </row>
@@ -13143,16 +13155,16 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="51" t="s">
         <v>534</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C102" s="47" t="s">
+      <c r="C102" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D102" s="47" t="s">
+      <c r="D102" s="51" t="s">
         <v>101</v>
       </c>
     </row>
@@ -13297,16 +13309,16 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="51" t="s">
         <v>539</v>
       </c>
-      <c r="B107" s="47" t="s">
+      <c r="B107" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C107" s="47" t="s">
+      <c r="C107" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D107" s="47" t="s">
+      <c r="D107" s="51" t="s">
         <v>106</v>
       </c>
     </row>
@@ -13381,16 +13393,16 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="47" t="s">
+      <c r="A110" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="B110" s="47" t="s">
+      <c r="B110" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C110" s="47" t="s">
+      <c r="C110" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D110" s="47" t="s">
+      <c r="D110" s="51" t="s">
         <v>107</v>
       </c>
     </row>
@@ -13570,16 +13582,16 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="51" t="s">
         <v>548</v>
       </c>
-      <c r="B116" s="47" t="s">
+      <c r="B116" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C116" s="47" t="s">
+      <c r="C116" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D116" s="47" t="s">
+      <c r="D116" s="51" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13829,16 +13841,16 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="47" t="s">
+      <c r="A124" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="B124" s="47" t="s">
+      <c r="B124" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C124" s="47" t="s">
+      <c r="C124" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D124" s="47" t="s">
+      <c r="D124" s="51" t="s">
         <v>119</v>
       </c>
     </row>
@@ -13913,16 +13925,16 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="47" t="s">
+      <c r="A127" s="51" t="s">
         <v>559</v>
       </c>
-      <c r="B127" s="47" t="s">
+      <c r="B127" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C127" s="47" t="s">
+      <c r="C127" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D127" s="47" t="s">
+      <c r="D127" s="51" t="s">
         <v>122</v>
       </c>
     </row>
@@ -14067,16 +14079,16 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="47" t="s">
+      <c r="A132" s="51" t="s">
         <v>564</v>
       </c>
-      <c r="B132" s="47" t="s">
+      <c r="B132" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="47" t="s">
+      <c r="C132" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D132" s="47" t="s">
+      <c r="D132" s="51" t="s">
         <v>715</v>
       </c>
     </row>
@@ -14221,16 +14233,16 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="47" t="s">
+      <c r="A137" s="51" t="s">
         <v>569</v>
       </c>
-      <c r="B137" s="47" t="s">
+      <c r="B137" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C137" s="47" t="s">
+      <c r="C137" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D137" s="47" t="s">
+      <c r="D137" s="51" t="s">
         <v>626</v>
       </c>
     </row>
@@ -14270,16 +14282,16 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="47" t="s">
+      <c r="A139" s="51" t="s">
         <v>571</v>
       </c>
-      <c r="B139" s="47" t="s">
+      <c r="B139" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C139" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D139" s="47" t="s">
+      <c r="D139" s="51" t="s">
         <v>33</v>
       </c>
     </row>
@@ -14319,16 +14331,16 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="47" t="s">
+      <c r="A141" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="B141" s="47" t="s">
+      <c r="B141" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C141" s="47" t="s">
+      <c r="C141" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D141" s="47" t="s">
+      <c r="D141" s="51" t="s">
         <v>135</v>
       </c>
     </row>
@@ -14368,16 +14380,16 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="47" t="s">
+      <c r="A143" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="B143" s="47" t="s">
+      <c r="B143" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C143" s="47" t="s">
+      <c r="C143" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D143" s="47" t="s">
+      <c r="D143" s="51" t="s">
         <v>35</v>
       </c>
     </row>
@@ -14487,16 +14499,16 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="47" t="s">
+      <c r="A147" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="B147" s="47" t="s">
+      <c r="B147" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C147" s="47" t="s">
+      <c r="C147" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D147" s="47" t="s">
+      <c r="D147" s="51" t="s">
         <v>37</v>
       </c>
     </row>
@@ -14606,16 +14618,16 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="47" t="s">
+      <c r="A151" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="B151" s="47" t="s">
+      <c r="B151" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C151" s="47" t="s">
+      <c r="C151" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="D151" s="47" t="s">
+      <c r="D151" s="51" t="s">
         <v>42</v>
       </c>
     </row>
@@ -14655,16 +14667,16 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="47" t="s">
+      <c r="A153" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="B153" s="47" t="s">
+      <c r="B153" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C153" s="47" t="s">
+      <c r="C153" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="D153" s="47" t="s">
+      <c r="D153" s="51" t="s">
         <v>143</v>
       </c>
     </row>
@@ -14704,16 +14716,16 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="47" t="s">
+      <c r="A155" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="B155" s="47" t="s">
+      <c r="B155" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C155" s="47" t="s">
+      <c r="C155" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="D155" s="47" t="s">
+      <c r="D155" s="51" t="s">
         <v>145</v>
       </c>
     </row>
@@ -14753,16 +14765,16 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="47" t="s">
+      <c r="A157" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="B157" s="47" t="s">
+      <c r="B157" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C157" s="47" t="s">
+      <c r="C157" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D157" s="47" t="s">
+      <c r="D157" s="51" t="s">
         <v>147</v>
       </c>
     </row>
@@ -14977,72 +14989,72 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="47" t="s">
+      <c r="A164" s="51" t="s">
         <v>598</v>
       </c>
-      <c r="B164" s="47" t="s">
+      <c r="B164" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C164" s="47" t="s">
+      <c r="C164" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D164" s="47" t="s">
+      <c r="D164" s="51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="47" t="s">
+      <c r="A165" s="51" t="s">
         <v>599</v>
       </c>
-      <c r="B165" s="47" t="s">
+      <c r="B165" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C165" s="47" t="s">
+      <c r="C165" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D165" s="47" t="s">
+      <c r="D165" s="51" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="47" t="s">
+      <c r="A166" s="51" t="s">
         <v>600</v>
       </c>
-      <c r="B166" s="47" t="s">
+      <c r="B166" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C166" s="47" t="s">
+      <c r="C166" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D166" s="47" t="s">
+      <c r="D166" s="51" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="47" t="s">
+      <c r="A167" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="B167" s="47" t="s">
+      <c r="B167" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C167" s="47" t="s">
+      <c r="C167" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D167" s="47" t="s">
+      <c r="D167" s="51" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="47" t="s">
+      <c r="A168" s="51" t="s">
         <v>602</v>
       </c>
-      <c r="B168" s="47" t="s">
+      <c r="B168" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C168" s="47" t="s">
+      <c r="C168" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D168" s="47" t="s">
+      <c r="D168" s="51" t="s">
         <v>156</v>
       </c>
     </row>
@@ -15082,16 +15094,16 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="47" t="s">
+      <c r="A170" s="51" t="s">
         <v>604</v>
       </c>
-      <c r="B170" s="47" t="s">
+      <c r="B170" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C170" s="47" t="s">
+      <c r="C170" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D170" s="47" t="s">
+      <c r="D170" s="51" t="s">
         <v>474</v>
       </c>
     </row>
@@ -15271,16 +15283,16 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="47" t="s">
+      <c r="A176" s="51" t="s">
         <v>610</v>
       </c>
-      <c r="B176" s="47" t="s">
+      <c r="B176" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="C176" s="47" t="s">
+      <c r="C176" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D176" s="47" t="s">
+      <c r="D176" s="51" t="s">
         <v>82</v>
       </c>
     </row>
@@ -15810,16 +15822,16 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="47" t="s">
+      <c r="A192" s="51" t="s">
         <v>627</v>
       </c>
-      <c r="B192" s="47" t="s">
+      <c r="B192" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C192" s="47" t="s">
+      <c r="C192" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D192" s="47" t="s">
+      <c r="D192" s="51" t="s">
         <v>181</v>
       </c>
     </row>
@@ -15999,16 +16011,16 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="47" t="s">
+      <c r="A198" s="51" t="s">
         <v>633</v>
       </c>
-      <c r="B198" s="47" t="s">
+      <c r="B198" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C198" s="47" t="s">
+      <c r="C198" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D198" s="47" t="s">
+      <c r="D198" s="51" t="s">
         <v>186</v>
       </c>
     </row>
@@ -16048,58 +16060,58 @@
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="47" t="s">
+      <c r="A200" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="B200" s="47" t="s">
+      <c r="B200" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C200" s="47" t="s">
+      <c r="C200" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D200" s="47" t="s">
+      <c r="D200" s="51" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="47" t="s">
+      <c r="A201" s="51" t="s">
         <v>636</v>
       </c>
-      <c r="B201" s="47" t="s">
+      <c r="B201" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C201" s="47" t="s">
+      <c r="C201" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D201" s="47" t="s">
+      <c r="D201" s="51" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="47" t="s">
+      <c r="A202" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="B202" s="47" t="s">
+      <c r="B202" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C202" s="47" t="s">
+      <c r="C202" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D202" s="47" t="s">
+      <c r="D202" s="51" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="47" t="s">
+      <c r="A203" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="B203" s="47" t="s">
+      <c r="B203" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C203" s="47" t="s">
+      <c r="C203" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D203" s="47" t="s">
+      <c r="D203" s="51" t="s">
         <v>191</v>
       </c>
     </row>
@@ -16174,16 +16186,16 @@
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="47" t="s">
+      <c r="A206" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="B206" s="47" t="s">
+      <c r="B206" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C206" s="47" t="s">
+      <c r="C206" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D206" s="47" t="s">
+      <c r="D206" s="51" t="s">
         <v>119</v>
       </c>
     </row>
@@ -16223,16 +16235,16 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="47" t="s">
+      <c r="A208" s="51" t="s">
         <v>643</v>
       </c>
-      <c r="B208" s="47" t="s">
+      <c r="B208" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C208" s="47" t="s">
+      <c r="C208" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="D208" s="47" t="s">
+      <c r="D208" s="51" t="s">
         <v>122</v>
       </c>
     </row>
@@ -16272,16 +16284,16 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="47" t="s">
+      <c r="A210" s="51" t="s">
         <v>645</v>
       </c>
-      <c r="B210" s="47" t="s">
+      <c r="B210" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C210" s="47" t="s">
+      <c r="C210" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D210" s="47" t="s">
+      <c r="D210" s="51" t="s">
         <v>33</v>
       </c>
     </row>
@@ -16391,16 +16403,16 @@
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="47" t="s">
+      <c r="A214" s="51" t="s">
         <v>649</v>
       </c>
-      <c r="B214" s="47" t="s">
+      <c r="B214" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C214" s="47" t="s">
+      <c r="C214" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D214" s="47" t="s">
+      <c r="D214" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -16440,30 +16452,30 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="47" t="s">
+      <c r="A216" s="51" t="s">
         <v>651</v>
       </c>
-      <c r="B216" s="47" t="s">
+      <c r="B216" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C216" s="47" t="s">
+      <c r="C216" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D216" s="47" t="s">
+      <c r="D216" s="51" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="47" t="s">
+      <c r="A217" s="51" t="s">
         <v>652</v>
       </c>
-      <c r="B217" s="47" t="s">
+      <c r="B217" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C217" s="47" t="s">
+      <c r="C217" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D217" s="47" t="s">
+      <c r="D217" s="51" t="s">
         <v>202</v>
       </c>
     </row>
@@ -16958,16 +16970,16 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="47" t="s">
+      <c r="A232" s="51" t="s">
         <v>671</v>
       </c>
-      <c r="B232" s="47" t="s">
+      <c r="B232" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C232" s="47" t="s">
+      <c r="C232" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="D232" s="47" t="s">
+      <c r="D232" s="51" t="s">
         <v>211</v>
       </c>
     </row>
@@ -17007,16 +17019,16 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="47" t="s">
+      <c r="A234" s="51" t="s">
         <v>673</v>
       </c>
-      <c r="B234" s="47" t="s">
+      <c r="B234" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C234" s="47" t="s">
+      <c r="C234" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="D234" s="47" t="s">
+      <c r="D234" s="51" t="s">
         <v>35</v>
       </c>
     </row>
@@ -17091,16 +17103,16 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="47" t="s">
+      <c r="A237" s="51" t="s">
         <v>676</v>
       </c>
-      <c r="B237" s="47" t="s">
+      <c r="B237" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C237" s="47" t="s">
+      <c r="C237" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D237" s="47" t="s">
+      <c r="D237" s="51" t="s">
         <v>53</v>
       </c>
     </row>
@@ -17140,16 +17152,16 @@
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="47" t="s">
+      <c r="A239" s="51" t="s">
         <v>678</v>
       </c>
-      <c r="B239" s="47" t="s">
+      <c r="B239" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C239" s="47" t="s">
+      <c r="C239" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D239" s="47" t="s">
+      <c r="D239" s="51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -17504,16 +17516,16 @@
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="47" t="s">
+      <c r="A250" s="51" t="s">
         <v>689</v>
       </c>
-      <c r="B250" s="47" t="s">
+      <c r="B250" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C250" s="47" t="s">
+      <c r="C250" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D250" s="47" t="s">
+      <c r="D250" s="51" t="s">
         <v>225</v>
       </c>
     </row>
@@ -17588,44 +17600,44 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253" s="47" t="s">
+      <c r="A253" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="B253" s="47" t="s">
+      <c r="B253" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C253" s="47" t="s">
+      <c r="C253" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D253" s="47" t="s">
+      <c r="D253" s="51" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="47" t="s">
+      <c r="A254" s="51" t="s">
         <v>693</v>
       </c>
-      <c r="B254" s="47" t="s">
+      <c r="B254" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C254" s="47" t="s">
+      <c r="C254" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D254" s="47" t="s">
+      <c r="D254" s="51" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="47" t="s">
+      <c r="A255" s="51" t="s">
         <v>694</v>
       </c>
-      <c r="B255" s="47" t="s">
+      <c r="B255" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C255" s="47" t="s">
+      <c r="C255" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D255" s="47" t="s">
+      <c r="D255" s="51" t="s">
         <v>486</v>
       </c>
     </row>
@@ -17665,30 +17677,30 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="47" t="s">
+      <c r="A257" s="51" t="s">
         <v>696</v>
       </c>
-      <c r="B257" s="47" t="s">
+      <c r="B257" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C257" s="47" t="s">
+      <c r="C257" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D257" s="47" t="s">
+      <c r="D257" s="51" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="47" t="s">
+      <c r="A258" s="51" t="s">
         <v>697</v>
       </c>
-      <c r="B258" s="47" t="s">
+      <c r="B258" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C258" s="47" t="s">
+      <c r="C258" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="D258" s="47" t="s">
+      <c r="D258" s="51" t="s">
         <v>498</v>
       </c>
     </row>
@@ -17798,16 +17810,16 @@
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="47" t="s">
+      <c r="A262" s="51" t="s">
         <v>701</v>
       </c>
-      <c r="B262" s="47" t="s">
+      <c r="B262" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C262" s="47" t="s">
+      <c r="C262" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D262" s="47" t="s">
+      <c r="D262" s="51" t="s">
         <v>441</v>
       </c>
     </row>
@@ -17847,30 +17859,30 @@
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="47" t="s">
+      <c r="A264" s="51" t="s">
         <v>703</v>
       </c>
-      <c r="B264" s="47" t="s">
+      <c r="B264" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C264" s="47" t="s">
+      <c r="C264" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D264" s="47" t="s">
+      <c r="D264" s="51" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="47" t="s">
+      <c r="A265" s="51" t="s">
         <v>705</v>
       </c>
-      <c r="B265" s="47" t="s">
+      <c r="B265" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C265" s="47" t="s">
+      <c r="C265" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D265" s="47" t="s">
+      <c r="D265" s="51" t="s">
         <v>502</v>
       </c>
     </row>
@@ -17945,16 +17957,16 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="47" t="s">
+      <c r="A268" s="51" t="s">
         <v>708</v>
       </c>
-      <c r="B268" s="47" t="s">
+      <c r="B268" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C268" s="47" t="s">
+      <c r="C268" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D268" s="47" t="s">
+      <c r="D268" s="51" t="s">
         <v>504</v>
       </c>
     </row>
@@ -18029,20 +18041,21 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="47" t="s">
+      <c r="A271" s="51" t="s">
         <v>711</v>
       </c>
-      <c r="B271" s="47" t="s">
+      <c r="B271" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="C271" s="47" t="s">
+      <c r="C271" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D271" s="47" t="s">
+      <c r="D271" s="51" t="s">
         <v>244</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K271" xr:uid="{1F803475-5415-9145-A7F9-C9B25C1F3A4E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24019,7 +24032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E054AB5-2273-2340-87EF-D763046EC5F2}">
   <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/diagnosa_x_intervensi.xlsx
+++ b/diagnosa_x_intervensi.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusup/Projects/node/react/sim-cpkp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FC725D-6E30-6E48-8256-FABDBBD40021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ED3A4E-EB27-D643-B368-9B8B7CC3E64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{810CA097-E161-4948-8238-A0A93C309FD5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{810CA097-E161-4948-8238-A0A93C309FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="db" sheetId="5" r:id="rId4"/>
-    <sheet name="copy_db" sheetId="6" r:id="rId5"/>
+    <sheet name="copy_db" sheetId="7" r:id="rId5"/>
+    <sheet name="copy_db_old" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet4!$A$1:$K$271</definedName>
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4862" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6151" uniqueCount="730">
   <si>
     <t xml:space="preserve"> D.0001 Bersihan Jalan Napas Tidak Efektif </t>
   </si>
@@ -2822,6 +2823,30 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>Promosi dan Dukungan  koping keluarga</t>
+  </si>
+  <si>
+    <t>Keputus asaan</t>
+  </si>
+  <si>
+    <t>Deteksi dini pertumbuhan dan perkembangan bayi dan balita</t>
+  </si>
+  <si>
+    <t>Pemberian oksigen dengan rebreating atau non  rebreating</t>
+  </si>
+  <si>
+    <t>Ikretik Neonatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edukasi latihan fisik (olah raga) </t>
+  </si>
+  <si>
+    <t>Ï</t>
+  </si>
+  <si>
+    <t>Penyuluhan dan pembelajaran</t>
   </si>
 </sst>
 </file>
@@ -10317,7 +10342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F803475-5415-9145-A7F9-C9B25C1F3A4E}">
   <dimension ref="A1:K271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView topLeftCell="A154" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
@@ -24029,6 +24054,6599 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F160D95-B3A9-9B48-97B2-4146F9D382A9}">
+  <dimension ref="A1:H253"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G10" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" t="s">
+        <v>380</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>426</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>426</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>453</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" t="s">
+        <v>283</v>
+      </c>
+      <c r="E16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" t="s">
+        <v>425</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>426</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>426</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E19" t="s">
+        <v>284</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>425</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>466</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>426</v>
+      </c>
+      <c r="H20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" t="s">
+        <v>425</v>
+      </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" t="s">
+        <v>467</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>426</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>426</v>
+      </c>
+      <c r="H23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" t="s">
+        <v>284</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>425</v>
+      </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" t="s">
+        <v>482</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" t="s">
+        <v>478</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>426</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>484</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>426</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>425</v>
+      </c>
+      <c r="H28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>426</v>
+      </c>
+      <c r="H29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" t="s">
+        <v>483</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>426</v>
+      </c>
+      <c r="H30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" t="s">
+        <v>284</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>425</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" t="s">
+        <v>505</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>426</v>
+      </c>
+      <c r="H32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>322</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>425</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" t="s">
+        <v>518</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>426</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>326</v>
+      </c>
+      <c r="E35" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>425</v>
+      </c>
+      <c r="H35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s">
+        <v>520</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>426</v>
+      </c>
+      <c r="H36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>328</v>
+      </c>
+      <c r="E37" t="s">
+        <v>284</v>
+      </c>
+      <c r="F37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" t="s">
+        <v>425</v>
+      </c>
+      <c r="H37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" t="s">
+        <v>517</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>426</v>
+      </c>
+      <c r="H38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" t="s">
+        <v>329</v>
+      </c>
+      <c r="D39" t="s">
+        <v>330</v>
+      </c>
+      <c r="E39" t="s">
+        <v>284</v>
+      </c>
+      <c r="F39" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39" t="s">
+        <v>425</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>519</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>426</v>
+      </c>
+      <c r="H40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>398</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>426</v>
+      </c>
+      <c r="H41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>399</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>426</v>
+      </c>
+      <c r="H42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>332</v>
+      </c>
+      <c r="E43" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>425</v>
+      </c>
+      <c r="H43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>252</v>
+      </c>
+      <c r="B44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" t="s">
+        <v>535</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>426</v>
+      </c>
+      <c r="H44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" t="s">
+        <v>533</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>426</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>252</v>
+      </c>
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" t="s">
+        <v>343</v>
+      </c>
+      <c r="D46" t="s">
+        <v>344</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>425</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>252</v>
+      </c>
+      <c r="B47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" t="s">
+        <v>546</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>426</v>
+      </c>
+      <c r="H47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>722</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>426</v>
+      </c>
+      <c r="H48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>252</v>
+      </c>
+      <c r="B49" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" t="s">
+        <v>345</v>
+      </c>
+      <c r="D49" t="s">
+        <v>346</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>425</v>
+      </c>
+      <c r="H49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" t="s">
+        <v>548</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>426</v>
+      </c>
+      <c r="H50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>723</v>
+      </c>
+      <c r="E51" t="s">
+        <v>284</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>425</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" t="s">
+        <v>547</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>426</v>
+      </c>
+      <c r="H52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" t="s">
+        <v>536</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>426</v>
+      </c>
+      <c r="H53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>340</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>425</v>
+      </c>
+      <c r="H54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" t="s">
+        <v>540</v>
+      </c>
+      <c r="D55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>426</v>
+      </c>
+      <c r="H55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>425</v>
+      </c>
+      <c r="H56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>426</v>
+      </c>
+      <c r="H57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" t="s">
+        <v>354</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>425</v>
+      </c>
+      <c r="H58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" t="s">
+        <v>558</v>
+      </c>
+      <c r="D59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>426</v>
+      </c>
+      <c r="H59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" t="s">
+        <v>559</v>
+      </c>
+      <c r="D60" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>426</v>
+      </c>
+      <c r="H60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>252</v>
+      </c>
+      <c r="B61" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" t="s">
+        <v>560</v>
+      </c>
+      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>426</v>
+      </c>
+      <c r="H61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" t="s">
+        <v>561</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>426</v>
+      </c>
+      <c r="H62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" t="s">
+        <v>357</v>
+      </c>
+      <c r="D63" t="s">
+        <v>358</v>
+      </c>
+      <c r="E63" t="s">
+        <v>284</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>425</v>
+      </c>
+      <c r="H63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" t="s">
+        <v>566</v>
+      </c>
+      <c r="D64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>426</v>
+      </c>
+      <c r="H64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" t="s">
+        <v>567</v>
+      </c>
+      <c r="D65" t="s">
+        <v>66</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>426</v>
+      </c>
+      <c r="H65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>252</v>
+      </c>
+      <c r="B66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" t="s">
+        <v>568</v>
+      </c>
+      <c r="D66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>426</v>
+      </c>
+      <c r="H66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>569</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>426</v>
+      </c>
+      <c r="H67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" t="s">
+        <v>570</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>426</v>
+      </c>
+      <c r="H68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>351</v>
+      </c>
+      <c r="D69" t="s">
+        <v>352</v>
+      </c>
+      <c r="E69" t="s">
+        <v>284</v>
+      </c>
+      <c r="F69" t="s">
+        <v>284</v>
+      </c>
+      <c r="G69" t="s">
+        <v>425</v>
+      </c>
+      <c r="H69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>252</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>724</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>426</v>
+      </c>
+      <c r="H70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>426</v>
+      </c>
+      <c r="H71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72" t="s">
+        <v>426</v>
+      </c>
+      <c r="H72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>426</v>
+      </c>
+      <c r="H73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>426</v>
+      </c>
+      <c r="H74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>426</v>
+      </c>
+      <c r="H75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>426</v>
+      </c>
+      <c r="H76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" t="s">
+        <v>251</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>356</v>
+      </c>
+      <c r="E77" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>425</v>
+      </c>
+      <c r="H77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>360</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79" t="s">
+        <v>425</v>
+      </c>
+      <c r="H79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>252</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80" t="s">
+        <v>426</v>
+      </c>
+      <c r="H80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>252</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81" t="s">
+        <v>426</v>
+      </c>
+      <c r="H81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>364</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>425</v>
+      </c>
+      <c r="H82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" t="s">
+        <v>583</v>
+      </c>
+      <c r="D83" t="s">
+        <v>87</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>426</v>
+      </c>
+      <c r="H83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
+        <v>263</v>
+      </c>
+      <c r="D84" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84" t="s">
+        <v>425</v>
+      </c>
+      <c r="H84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="s">
+        <v>431</v>
+      </c>
+      <c r="D85" t="s">
+        <v>371</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>426</v>
+      </c>
+      <c r="H85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>257</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>267</v>
+      </c>
+      <c r="G86" t="s">
+        <v>425</v>
+      </c>
+      <c r="H86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>429</v>
+      </c>
+      <c r="D87" t="s">
+        <v>369</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87" t="s">
+        <v>426</v>
+      </c>
+      <c r="H87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>376</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88" t="s">
+        <v>426</v>
+      </c>
+      <c r="H88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>725</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>426</v>
+      </c>
+      <c r="H89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>425</v>
+      </c>
+      <c r="H90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>257</v>
+      </c>
+      <c r="B91" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" t="s">
+        <v>438</v>
+      </c>
+      <c r="D91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91" t="s">
+        <v>426</v>
+      </c>
+      <c r="H91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" t="s">
+        <v>440</v>
+      </c>
+      <c r="D92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>426</v>
+      </c>
+      <c r="H92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>277</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93" t="s">
+        <v>425</v>
+      </c>
+      <c r="H93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>257</v>
+      </c>
+      <c r="B94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" t="s">
+        <v>454</v>
+      </c>
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94" t="s">
+        <v>426</v>
+      </c>
+      <c r="H94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>257</v>
+      </c>
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>726</v>
+      </c>
+      <c r="E95" t="s">
+        <v>284</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>425</v>
+      </c>
+      <c r="H95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
+        <v>464</v>
+      </c>
+      <c r="D96" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>426</v>
+      </c>
+      <c r="H96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>470</v>
+      </c>
+      <c r="D97" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97" t="s">
+        <v>426</v>
+      </c>
+      <c r="H97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>284</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>425</v>
+      </c>
+      <c r="H98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>257</v>
+      </c>
+      <c r="B99" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
+        <v>465</v>
+      </c>
+      <c r="D99" t="s">
+        <v>294</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>426</v>
+      </c>
+      <c r="H99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>257</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" t="s">
+        <v>295</v>
+      </c>
+      <c r="D100" t="s">
+        <v>296</v>
+      </c>
+      <c r="E100" t="s">
+        <v>284</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100" t="s">
+        <v>425</v>
+      </c>
+      <c r="H100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>257</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
+        <v>452</v>
+      </c>
+      <c r="D101" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>426</v>
+      </c>
+      <c r="H101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>257</v>
+      </c>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="s">
+        <v>457</v>
+      </c>
+      <c r="D102" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102" t="s">
+        <v>426</v>
+      </c>
+      <c r="H102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>257</v>
+      </c>
+      <c r="B103" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>298</v>
+      </c>
+      <c r="E103" t="s">
+        <v>284</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>425</v>
+      </c>
+      <c r="H103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>257</v>
+      </c>
+      <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" t="s">
+        <v>453</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>426</v>
+      </c>
+      <c r="H104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>257</v>
+      </c>
+      <c r="B105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" t="s">
+        <v>291</v>
+      </c>
+      <c r="D105" t="s">
+        <v>292</v>
+      </c>
+      <c r="E105" t="s">
+        <v>284</v>
+      </c>
+      <c r="F105" t="s">
+        <v>284</v>
+      </c>
+      <c r="G105" t="s">
+        <v>425</v>
+      </c>
+      <c r="H105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106" t="s">
+        <v>426</v>
+      </c>
+      <c r="H106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>257</v>
+      </c>
+      <c r="B107" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" t="s">
+        <v>458</v>
+      </c>
+      <c r="D107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>426</v>
+      </c>
+      <c r="H107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" t="s">
+        <v>300</v>
+      </c>
+      <c r="E108" t="s">
+        <v>284</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>425</v>
+      </c>
+      <c r="H108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>257</v>
+      </c>
+      <c r="B109" t="s">
+        <v>193</v>
+      </c>
+      <c r="C109" t="s">
+        <v>489</v>
+      </c>
+      <c r="D109" t="s">
+        <v>110</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109" t="s">
+        <v>426</v>
+      </c>
+      <c r="H109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" t="s">
+        <v>193</v>
+      </c>
+      <c r="C110" t="s">
+        <v>479</v>
+      </c>
+      <c r="D110" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s">
+        <v>426</v>
+      </c>
+      <c r="H110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>257</v>
+      </c>
+      <c r="B111" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" t="s">
+        <v>477</v>
+      </c>
+      <c r="D111" t="s">
+        <v>112</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>426</v>
+      </c>
+      <c r="H111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>302</v>
+      </c>
+      <c r="E112" t="s">
+        <v>284</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112" t="s">
+        <v>425</v>
+      </c>
+      <c r="H112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>257</v>
+      </c>
+      <c r="B113" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" t="s">
+        <v>491</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="G113" t="s">
+        <v>426</v>
+      </c>
+      <c r="H113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" t="s">
+        <v>303</v>
+      </c>
+      <c r="D114" t="s">
+        <v>304</v>
+      </c>
+      <c r="E114" t="s">
+        <v>284</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114" t="s">
+        <v>425</v>
+      </c>
+      <c r="H114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>257</v>
+      </c>
+      <c r="B115" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" t="s">
+        <v>480</v>
+      </c>
+      <c r="D115" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115" t="s">
+        <v>426</v>
+      </c>
+      <c r="H115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" t="s">
+        <v>193</v>
+      </c>
+      <c r="C116" t="s">
+        <v>490</v>
+      </c>
+      <c r="D116" t="s">
+        <v>115</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s">
+        <v>426</v>
+      </c>
+      <c r="H116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>257</v>
+      </c>
+      <c r="B117" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" t="s">
+        <v>305</v>
+      </c>
+      <c r="D117" t="s">
+        <v>306</v>
+      </c>
+      <c r="E117" t="s">
+        <v>284</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>425</v>
+      </c>
+      <c r="H117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" t="s">
+        <v>494</v>
+      </c>
+      <c r="D118" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118" t="s">
+        <v>426</v>
+      </c>
+      <c r="H118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>257</v>
+      </c>
+      <c r="B119" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119" t="s">
+        <v>488</v>
+      </c>
+      <c r="D119" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s">
+        <v>426</v>
+      </c>
+      <c r="H119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>257</v>
+      </c>
+      <c r="B120" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>310</v>
+      </c>
+      <c r="E120" t="s">
+        <v>284</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120" t="s">
+        <v>425</v>
+      </c>
+      <c r="H120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>257</v>
+      </c>
+      <c r="B121" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" t="s">
+        <v>476</v>
+      </c>
+      <c r="D121" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121" t="s">
+        <v>426</v>
+      </c>
+      <c r="H121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" t="s">
+        <v>485</v>
+      </c>
+      <c r="D122" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122" t="s">
+        <v>426</v>
+      </c>
+      <c r="H122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" t="s">
+        <v>193</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>312</v>
+      </c>
+      <c r="E123" t="s">
+        <v>284</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="G123" t="s">
+        <v>425</v>
+      </c>
+      <c r="H123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>257</v>
+      </c>
+      <c r="B124" t="s">
+        <v>193</v>
+      </c>
+      <c r="C124" t="s">
+        <v>475</v>
+      </c>
+      <c r="D124" t="s">
+        <v>123</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124" t="s">
+        <v>426</v>
+      </c>
+      <c r="H124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" t="s">
+        <v>193</v>
+      </c>
+      <c r="C125" t="s">
+        <v>481</v>
+      </c>
+      <c r="D125" t="s">
+        <v>124</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125" t="s">
+        <v>426</v>
+      </c>
+      <c r="H125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
+        <v>193</v>
+      </c>
+      <c r="C126" t="s">
+        <v>487</v>
+      </c>
+      <c r="D126" t="s">
+        <v>125</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126" t="s">
+        <v>426</v>
+      </c>
+      <c r="H126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" t="s">
+        <v>232</v>
+      </c>
+      <c r="C127" t="s">
+        <v>313</v>
+      </c>
+      <c r="D127" t="s">
+        <v>314</v>
+      </c>
+      <c r="E127" t="s">
+        <v>284</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="G127" t="s">
+        <v>425</v>
+      </c>
+      <c r="H127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>257</v>
+      </c>
+      <c r="B128" t="s">
+        <v>232</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>393</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>426</v>
+      </c>
+      <c r="H128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" t="s">
+        <v>232</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>727</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="G129" t="s">
+        <v>426</v>
+      </c>
+      <c r="H129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130" t="s">
+        <v>232</v>
+      </c>
+      <c r="C130" t="s">
+        <v>507</v>
+      </c>
+      <c r="D130" t="s">
+        <v>396</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+      <c r="G130" t="s">
+        <v>426</v>
+      </c>
+      <c r="H130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>257</v>
+      </c>
+      <c r="B131" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" t="s">
+        <v>496</v>
+      </c>
+      <c r="D131" t="s">
+        <v>129</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131" t="s">
+        <v>426</v>
+      </c>
+      <c r="H131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" t="s">
+        <v>317</v>
+      </c>
+      <c r="D132" t="s">
+        <v>318</v>
+      </c>
+      <c r="E132" t="s">
+        <v>284</v>
+      </c>
+      <c r="F132">
+        <v>4</v>
+      </c>
+      <c r="G132" t="s">
+        <v>425</v>
+      </c>
+      <c r="H132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133" t="s">
+        <v>232</v>
+      </c>
+      <c r="C133" t="s">
+        <v>728</v>
+      </c>
+      <c r="D133" t="s">
+        <v>131</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
+      </c>
+      <c r="G133" t="s">
+        <v>426</v>
+      </c>
+      <c r="H133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>257</v>
+      </c>
+      <c r="B134" t="s">
+        <v>232</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>234</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134">
+        <v>4</v>
+      </c>
+      <c r="G134" t="s">
+        <v>426</v>
+      </c>
+      <c r="H134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>257</v>
+      </c>
+      <c r="B135" t="s">
+        <v>232</v>
+      </c>
+      <c r="C135" t="s">
+        <v>509</v>
+      </c>
+      <c r="D135" t="s">
+        <v>133</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
+      </c>
+      <c r="G135" t="s">
+        <v>426</v>
+      </c>
+      <c r="H135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>257</v>
+      </c>
+      <c r="B136" t="s">
+        <v>196</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>322</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>284</v>
+      </c>
+      <c r="G136" t="s">
+        <v>425</v>
+      </c>
+      <c r="H136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" t="s">
+        <v>196</v>
+      </c>
+      <c r="C137" t="s">
+        <v>528</v>
+      </c>
+      <c r="D137" t="s">
+        <v>134</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="G137" t="s">
+        <v>426</v>
+      </c>
+      <c r="H137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>257</v>
+      </c>
+      <c r="B138" t="s">
+        <v>196</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>324</v>
+      </c>
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
+        <v>284</v>
+      </c>
+      <c r="G138" t="s">
+        <v>425</v>
+      </c>
+      <c r="H138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>257</v>
+      </c>
+      <c r="B139" t="s">
+        <v>196</v>
+      </c>
+      <c r="C139" t="s">
+        <v>515</v>
+      </c>
+      <c r="D139" t="s">
+        <v>136</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139" t="s">
+        <v>426</v>
+      </c>
+      <c r="H139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" t="s">
+        <v>196</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>326</v>
+      </c>
+      <c r="E140" t="s">
+        <v>284</v>
+      </c>
+      <c r="F140" t="s">
+        <v>284</v>
+      </c>
+      <c r="G140" t="s">
+        <v>425</v>
+      </c>
+      <c r="H140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>257</v>
+      </c>
+      <c r="B141" t="s">
+        <v>196</v>
+      </c>
+      <c r="C141" t="s">
+        <v>512</v>
+      </c>
+      <c r="D141" t="s">
+        <v>137</v>
+      </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+      <c r="G141" t="s">
+        <v>426</v>
+      </c>
+      <c r="H141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>257</v>
+      </c>
+      <c r="B142" t="s">
+        <v>196</v>
+      </c>
+      <c r="C142" t="s">
+        <v>513</v>
+      </c>
+      <c r="D142" t="s">
+        <v>138</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142" t="s">
+        <v>426</v>
+      </c>
+      <c r="H142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>257</v>
+      </c>
+      <c r="B143" t="s">
+        <v>196</v>
+      </c>
+      <c r="C143" t="s">
+        <v>530</v>
+      </c>
+      <c r="D143" t="s">
+        <v>139</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="G143" t="s">
+        <v>426</v>
+      </c>
+      <c r="H143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" t="s">
+        <v>196</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>328</v>
+      </c>
+      <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
+        <v>284</v>
+      </c>
+      <c r="G144" t="s">
+        <v>425</v>
+      </c>
+      <c r="H144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>257</v>
+      </c>
+      <c r="B145" t="s">
+        <v>196</v>
+      </c>
+      <c r="C145" t="s">
+        <v>529</v>
+      </c>
+      <c r="D145" t="s">
+        <v>140</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>426</v>
+      </c>
+      <c r="H145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>257</v>
+      </c>
+      <c r="B146" t="s">
+        <v>196</v>
+      </c>
+      <c r="C146" t="s">
+        <v>329</v>
+      </c>
+      <c r="D146" t="s">
+        <v>330</v>
+      </c>
+      <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
+        <v>284</v>
+      </c>
+      <c r="G146" t="s">
+        <v>425</v>
+      </c>
+      <c r="H146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>257</v>
+      </c>
+      <c r="B147" t="s">
+        <v>196</v>
+      </c>
+      <c r="C147" t="s">
+        <v>527</v>
+      </c>
+      <c r="D147" t="s">
+        <v>141</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>426</v>
+      </c>
+      <c r="H147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>257</v>
+      </c>
+      <c r="B148" t="s">
+        <v>249</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>332</v>
+      </c>
+      <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>425</v>
+      </c>
+      <c r="H148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>257</v>
+      </c>
+      <c r="B149" t="s">
+        <v>249</v>
+      </c>
+      <c r="C149" t="s">
+        <v>534</v>
+      </c>
+      <c r="D149" t="s">
+        <v>142</v>
+      </c>
+      <c r="E149">
+        <v>4</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
+      <c r="G149" t="s">
+        <v>426</v>
+      </c>
+      <c r="H149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>257</v>
+      </c>
+      <c r="B150" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>334</v>
+      </c>
+      <c r="E150" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>425</v>
+      </c>
+      <c r="H150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>257</v>
+      </c>
+      <c r="B151" t="s">
+        <v>249</v>
+      </c>
+      <c r="C151" t="s">
+        <v>532</v>
+      </c>
+      <c r="D151" t="s">
+        <v>144</v>
+      </c>
+      <c r="E151">
+        <v>4</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="G151" t="s">
+        <v>426</v>
+      </c>
+      <c r="H151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>257</v>
+      </c>
+      <c r="B152" t="s">
+        <v>249</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>336</v>
+      </c>
+      <c r="E152" t="s">
+        <v>284</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>425</v>
+      </c>
+      <c r="H152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>257</v>
+      </c>
+      <c r="B153" t="s">
+        <v>249</v>
+      </c>
+      <c r="C153" t="s">
+        <v>531</v>
+      </c>
+      <c r="D153" t="s">
+        <v>146</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153" t="s">
+        <v>426</v>
+      </c>
+      <c r="H153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>257</v>
+      </c>
+      <c r="B154" t="s">
+        <v>216</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>338</v>
+      </c>
+      <c r="E154">
+        <v>4</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>425</v>
+      </c>
+      <c r="H154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>257</v>
+      </c>
+      <c r="B155" t="s">
+        <v>216</v>
+      </c>
+      <c r="C155" t="s">
+        <v>542</v>
+      </c>
+      <c r="D155" t="s">
+        <v>148</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>426</v>
+      </c>
+      <c r="H155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>257</v>
+      </c>
+      <c r="B156" t="s">
+        <v>250</v>
+      </c>
+      <c r="C156" t="s">
+        <v>353</v>
+      </c>
+      <c r="D156" t="s">
+        <v>354</v>
+      </c>
+      <c r="E156">
+        <v>4</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>425</v>
+      </c>
+      <c r="H156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>257</v>
+      </c>
+      <c r="B157" t="s">
+        <v>250</v>
+      </c>
+      <c r="C157" t="s">
+        <v>562</v>
+      </c>
+      <c r="D157" t="s">
+        <v>149</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>426</v>
+      </c>
+      <c r="H157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>257</v>
+      </c>
+      <c r="B158" t="s">
+        <v>250</v>
+      </c>
+      <c r="C158" t="s">
+        <v>563</v>
+      </c>
+      <c r="D158" t="s">
+        <v>150</v>
+      </c>
+      <c r="E158">
+        <v>4</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+      <c r="G158" t="s">
+        <v>426</v>
+      </c>
+      <c r="H158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>257</v>
+      </c>
+      <c r="B159" t="s">
+        <v>250</v>
+      </c>
+      <c r="C159" t="s">
+        <v>564</v>
+      </c>
+      <c r="D159" t="s">
+        <v>151</v>
+      </c>
+      <c r="E159">
+        <v>4</v>
+      </c>
+      <c r="F159">
+        <v>4</v>
+      </c>
+      <c r="G159" t="s">
+        <v>426</v>
+      </c>
+      <c r="H159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>257</v>
+      </c>
+      <c r="B160" t="s">
+        <v>250</v>
+      </c>
+      <c r="C160" t="s">
+        <v>565</v>
+      </c>
+      <c r="D160" t="s">
+        <v>152</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+      <c r="F160">
+        <v>4</v>
+      </c>
+      <c r="G160" t="s">
+        <v>426</v>
+      </c>
+      <c r="H160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>257</v>
+      </c>
+      <c r="B161" t="s">
+        <v>729</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>356</v>
+      </c>
+      <c r="E161" t="s">
+        <v>284</v>
+      </c>
+      <c r="F161">
+        <v>4</v>
+      </c>
+      <c r="G161" t="s">
+        <v>425</v>
+      </c>
+      <c r="H161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>257</v>
+      </c>
+      <c r="B162" t="s">
+        <v>729</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>154</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>4</v>
+      </c>
+      <c r="G162" t="s">
+        <v>426</v>
+      </c>
+      <c r="H162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>257</v>
+      </c>
+      <c r="B163" t="s">
+        <v>729</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>155</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <v>4</v>
+      </c>
+      <c r="G163" t="s">
+        <v>426</v>
+      </c>
+      <c r="H163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>257</v>
+      </c>
+      <c r="B164" t="s">
+        <v>729</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>156</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+      <c r="G164" t="s">
+        <v>426</v>
+      </c>
+      <c r="H164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>257</v>
+      </c>
+      <c r="B165" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" t="s">
+        <v>351</v>
+      </c>
+      <c r="D165" t="s">
+        <v>352</v>
+      </c>
+      <c r="E165" t="s">
+        <v>284</v>
+      </c>
+      <c r="F165" t="s">
+        <v>284</v>
+      </c>
+      <c r="G165" t="s">
+        <v>425</v>
+      </c>
+      <c r="H165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>257</v>
+      </c>
+      <c r="B166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>474</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166">
+        <v>4</v>
+      </c>
+      <c r="G166" t="s">
+        <v>426</v>
+      </c>
+      <c r="H166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>257</v>
+      </c>
+      <c r="B167" t="s">
+        <v>157</v>
+      </c>
+      <c r="C167" t="s">
+        <v>552</v>
+      </c>
+      <c r="D167" t="s">
+        <v>159</v>
+      </c>
+      <c r="E167">
+        <v>3</v>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+      <c r="G167" t="s">
+        <v>426</v>
+      </c>
+      <c r="H167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>257</v>
+      </c>
+      <c r="B168" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168" t="s">
+        <v>553</v>
+      </c>
+      <c r="D168" t="s">
+        <v>160</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="G168" t="s">
+        <v>426</v>
+      </c>
+      <c r="H168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>257</v>
+      </c>
+      <c r="B169" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" t="s">
+        <v>555</v>
+      </c>
+      <c r="D169" t="s">
+        <v>161</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+      <c r="F169">
+        <v>4</v>
+      </c>
+      <c r="G169" t="s">
+        <v>426</v>
+      </c>
+      <c r="H169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>257</v>
+      </c>
+      <c r="B170" t="s">
+        <v>157</v>
+      </c>
+      <c r="C170" t="s">
+        <v>556</v>
+      </c>
+      <c r="D170" t="s">
+        <v>162</v>
+      </c>
+      <c r="E170">
+        <v>3</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
+      </c>
+      <c r="G170" t="s">
+        <v>426</v>
+      </c>
+      <c r="H170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>257</v>
+      </c>
+      <c r="B171" t="s">
+        <v>157</v>
+      </c>
+      <c r="C171" t="s">
+        <v>557</v>
+      </c>
+      <c r="D171" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171">
+        <v>3</v>
+      </c>
+      <c r="F171">
+        <v>4</v>
+      </c>
+      <c r="G171" t="s">
+        <v>426</v>
+      </c>
+      <c r="H171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>257</v>
+      </c>
+      <c r="B172" t="s">
+        <v>164</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>360</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172">
+        <v>4</v>
+      </c>
+      <c r="G172" t="s">
+        <v>425</v>
+      </c>
+      <c r="H172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>257</v>
+      </c>
+      <c r="B173" t="s">
+        <v>164</v>
+      </c>
+      <c r="C173" t="s">
+        <v>578</v>
+      </c>
+      <c r="D173" t="s">
+        <v>165</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+      <c r="G173" t="s">
+        <v>426</v>
+      </c>
+      <c r="H173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" t="s">
+        <v>164</v>
+      </c>
+      <c r="C174" t="s">
+        <v>575</v>
+      </c>
+      <c r="D174" t="s">
+        <v>166</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+      <c r="F174">
+        <v>4</v>
+      </c>
+      <c r="G174" t="s">
+        <v>426</v>
+      </c>
+      <c r="H174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>257</v>
+      </c>
+      <c r="B175" t="s">
+        <v>164</v>
+      </c>
+      <c r="C175" t="s">
+        <v>572</v>
+      </c>
+      <c r="D175" t="s">
+        <v>167</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175">
+        <v>4</v>
+      </c>
+      <c r="G175" t="s">
+        <v>426</v>
+      </c>
+      <c r="H175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>257</v>
+      </c>
+      <c r="B176" t="s">
+        <v>168</v>
+      </c>
+      <c r="C176" t="s">
+        <v>361</v>
+      </c>
+      <c r="D176" t="s">
+        <v>362</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+      <c r="F176">
+        <v>4</v>
+      </c>
+      <c r="G176" t="s">
+        <v>425</v>
+      </c>
+      <c r="H176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>257</v>
+      </c>
+      <c r="B177" t="s">
+        <v>168</v>
+      </c>
+      <c r="C177" t="s">
+        <v>581</v>
+      </c>
+      <c r="D177" t="s">
+        <v>170</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+      <c r="F177">
+        <v>4</v>
+      </c>
+      <c r="G177" t="s">
+        <v>426</v>
+      </c>
+      <c r="H177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>256</v>
+      </c>
+      <c r="B178" t="s">
+        <v>171</v>
+      </c>
+      <c r="C178" t="s">
+        <v>263</v>
+      </c>
+      <c r="D178" t="s">
+        <v>264</v>
+      </c>
+      <c r="E178">
+        <v>4</v>
+      </c>
+      <c r="F178">
+        <v>4</v>
+      </c>
+      <c r="G178" t="s">
+        <v>425</v>
+      </c>
+      <c r="H178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>256</v>
+      </c>
+      <c r="B179" t="s">
+        <v>171</v>
+      </c>
+      <c r="C179" t="s">
+        <v>434</v>
+      </c>
+      <c r="D179" t="s">
+        <v>172</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+      <c r="F179">
+        <v>4</v>
+      </c>
+      <c r="G179" t="s">
+        <v>426</v>
+      </c>
+      <c r="H179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>256</v>
+      </c>
+      <c r="B180" t="s">
+        <v>171</v>
+      </c>
+      <c r="C180" t="s">
+        <v>268</v>
+      </c>
+      <c r="D180" t="s">
+        <v>269</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180" t="s">
+        <v>425</v>
+      </c>
+      <c r="H180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>256</v>
+      </c>
+      <c r="B181" t="s">
+        <v>171</v>
+      </c>
+      <c r="C181" t="s">
+        <v>435</v>
+      </c>
+      <c r="D181" t="s">
+        <v>173</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+      <c r="F181">
+        <v>4</v>
+      </c>
+      <c r="G181" t="s">
+        <v>426</v>
+      </c>
+      <c r="H181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>256</v>
+      </c>
+      <c r="B182" t="s">
+        <v>174</v>
+      </c>
+      <c r="C182" t="s">
+        <v>270</v>
+      </c>
+      <c r="D182" t="s">
+        <v>271</v>
+      </c>
+      <c r="E182" t="s">
+        <v>267</v>
+      </c>
+      <c r="F182" t="s">
+        <v>267</v>
+      </c>
+      <c r="G182" t="s">
+        <v>425</v>
+      </c>
+      <c r="H182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>256</v>
+      </c>
+      <c r="B183" t="s">
+        <v>174</v>
+      </c>
+      <c r="C183" t="s">
+        <v>446</v>
+      </c>
+      <c r="D183" t="s">
+        <v>659</v>
+      </c>
+      <c r="E183">
+        <v>4</v>
+      </c>
+      <c r="F183">
+        <v>4</v>
+      </c>
+      <c r="G183" t="s">
+        <v>426</v>
+      </c>
+      <c r="H183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>256</v>
+      </c>
+      <c r="B184" t="s">
+        <v>174</v>
+      </c>
+      <c r="C184" t="s">
+        <v>272</v>
+      </c>
+      <c r="D184" t="s">
+        <v>273</v>
+      </c>
+      <c r="E184" t="s">
+        <v>267</v>
+      </c>
+      <c r="F184" t="s">
+        <v>267</v>
+      </c>
+      <c r="G184" t="s">
+        <v>425</v>
+      </c>
+      <c r="H184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>256</v>
+      </c>
+      <c r="B185" t="s">
+        <v>174</v>
+      </c>
+      <c r="C185" t="s">
+        <v>446</v>
+      </c>
+      <c r="D185" t="s">
+        <v>659</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
+      </c>
+      <c r="G185" t="s">
+        <v>426</v>
+      </c>
+      <c r="H185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>256</v>
+      </c>
+      <c r="B186" t="s">
+        <v>174</v>
+      </c>
+      <c r="C186" t="s">
+        <v>274</v>
+      </c>
+      <c r="D186" t="s">
+        <v>275</v>
+      </c>
+      <c r="E186" t="s">
+        <v>267</v>
+      </c>
+      <c r="F186" t="s">
+        <v>267</v>
+      </c>
+      <c r="G186" t="s">
+        <v>425</v>
+      </c>
+      <c r="H186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>256</v>
+      </c>
+      <c r="B187" t="s">
+        <v>174</v>
+      </c>
+      <c r="C187" t="s">
+        <v>446</v>
+      </c>
+      <c r="D187" t="s">
+        <v>659</v>
+      </c>
+      <c r="E187">
+        <v>4</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+      <c r="G187" t="s">
+        <v>426</v>
+      </c>
+      <c r="H187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>256</v>
+      </c>
+      <c r="B188" t="s">
+        <v>180</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
+        <v>279</v>
+      </c>
+      <c r="E188">
+        <v>4</v>
+      </c>
+      <c r="F188">
+        <v>4</v>
+      </c>
+      <c r="G188" t="s">
+        <v>425</v>
+      </c>
+      <c r="H188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>256</v>
+      </c>
+      <c r="B189" t="s">
+        <v>180</v>
+      </c>
+      <c r="C189" t="s">
+        <v>462</v>
+      </c>
+      <c r="D189" t="s">
+        <v>182</v>
+      </c>
+      <c r="E189">
+        <v>4</v>
+      </c>
+      <c r="F189">
+        <v>4</v>
+      </c>
+      <c r="G189" t="s">
+        <v>426</v>
+      </c>
+      <c r="H189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>256</v>
+      </c>
+      <c r="B190" t="s">
+        <v>180</v>
+      </c>
+      <c r="C190" t="s">
+        <v>280</v>
+      </c>
+      <c r="D190" t="s">
+        <v>281</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+      <c r="F190">
+        <v>4</v>
+      </c>
+      <c r="G190" t="s">
+        <v>425</v>
+      </c>
+      <c r="H190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>256</v>
+      </c>
+      <c r="B191" t="s">
+        <v>180</v>
+      </c>
+      <c r="C191" t="s">
+        <v>463</v>
+      </c>
+      <c r="D191" t="s">
+        <v>184</v>
+      </c>
+      <c r="E191">
+        <v>4</v>
+      </c>
+      <c r="F191">
+        <v>4</v>
+      </c>
+      <c r="G191" t="s">
+        <v>426</v>
+      </c>
+      <c r="H191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>256</v>
+      </c>
+      <c r="B192" t="s">
+        <v>180</v>
+      </c>
+      <c r="C192" t="s">
+        <v>282</v>
+      </c>
+      <c r="D192" t="s">
+        <v>283</v>
+      </c>
+      <c r="E192" t="s">
+        <v>284</v>
+      </c>
+      <c r="F192" t="s">
+        <v>284</v>
+      </c>
+      <c r="G192" t="s">
+        <v>425</v>
+      </c>
+      <c r="H192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>256</v>
+      </c>
+      <c r="B193" t="s">
+        <v>180</v>
+      </c>
+      <c r="C193" t="s">
+        <v>472</v>
+      </c>
+      <c r="D193" t="s">
+        <v>185</v>
+      </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+      <c r="G193" t="s">
+        <v>426</v>
+      </c>
+      <c r="H193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>256</v>
+      </c>
+      <c r="B194" t="s">
+        <v>180</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194" t="s">
+        <v>286</v>
+      </c>
+      <c r="E194" t="s">
+        <v>267</v>
+      </c>
+      <c r="F194" t="s">
+        <v>267</v>
+      </c>
+      <c r="G194" t="s">
+        <v>425</v>
+      </c>
+      <c r="H194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>256</v>
+      </c>
+      <c r="B195" t="s">
+        <v>180</v>
+      </c>
+      <c r="C195" t="s">
+        <v>473</v>
+      </c>
+      <c r="D195" t="s">
+        <v>187</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
+      </c>
+      <c r="G195" t="s">
+        <v>426</v>
+      </c>
+      <c r="H195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>256</v>
+      </c>
+      <c r="B196" t="s">
+        <v>180</v>
+      </c>
+      <c r="C196" t="s">
+        <v>291</v>
+      </c>
+      <c r="D196" t="s">
+        <v>292</v>
+      </c>
+      <c r="E196" t="s">
+        <v>284</v>
+      </c>
+      <c r="F196" t="s">
+        <v>284</v>
+      </c>
+      <c r="G196" t="s">
+        <v>425</v>
+      </c>
+      <c r="H196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>256</v>
+      </c>
+      <c r="B197" t="s">
+        <v>180</v>
+      </c>
+      <c r="C197" t="s">
+        <v>461</v>
+      </c>
+      <c r="D197" t="s">
+        <v>192</v>
+      </c>
+      <c r="E197">
+        <v>4</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="G197" t="s">
+        <v>426</v>
+      </c>
+      <c r="H197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>256</v>
+      </c>
+      <c r="B198" t="s">
+        <v>193</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>310</v>
+      </c>
+      <c r="E198" t="s">
+        <v>284</v>
+      </c>
+      <c r="F198">
+        <v>4</v>
+      </c>
+      <c r="G198" t="s">
+        <v>425</v>
+      </c>
+      <c r="H198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>256</v>
+      </c>
+      <c r="B199" t="s">
+        <v>193</v>
+      </c>
+      <c r="C199" t="s">
+        <v>492</v>
+      </c>
+      <c r="D199" t="s">
+        <v>194</v>
+      </c>
+      <c r="E199">
+        <v>4</v>
+      </c>
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="G199" t="s">
+        <v>426</v>
+      </c>
+      <c r="H199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>256</v>
+      </c>
+      <c r="B200" t="s">
+        <v>193</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>312</v>
+      </c>
+      <c r="E200" t="s">
+        <v>284</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="G200" t="s">
+        <v>425</v>
+      </c>
+      <c r="H200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>256</v>
+      </c>
+      <c r="B201" t="s">
+        <v>193</v>
+      </c>
+      <c r="C201" t="s">
+        <v>493</v>
+      </c>
+      <c r="D201" t="s">
+        <v>195</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+      <c r="F201">
+        <v>3</v>
+      </c>
+      <c r="G201" t="s">
+        <v>426</v>
+      </c>
+      <c r="H201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202" t="s">
+        <v>196</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>322</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202" t="s">
+        <v>284</v>
+      </c>
+      <c r="G202" t="s">
+        <v>425</v>
+      </c>
+      <c r="H202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>256</v>
+      </c>
+      <c r="B203" t="s">
+        <v>196</v>
+      </c>
+      <c r="C203" t="s">
+        <v>514</v>
+      </c>
+      <c r="D203" t="s">
+        <v>197</v>
+      </c>
+      <c r="E203">
+        <v>3</v>
+      </c>
+      <c r="F203">
+        <v>4</v>
+      </c>
+      <c r="G203" t="s">
+        <v>426</v>
+      </c>
+      <c r="H203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>256</v>
+      </c>
+      <c r="B204" t="s">
+        <v>196</v>
+      </c>
+      <c r="C204" t="s">
+        <v>523</v>
+      </c>
+      <c r="D204" t="s">
+        <v>198</v>
+      </c>
+      <c r="E204">
+        <v>4</v>
+      </c>
+      <c r="F204">
+        <v>4</v>
+      </c>
+      <c r="G204" t="s">
+        <v>426</v>
+      </c>
+      <c r="H204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>256</v>
+      </c>
+      <c r="B205" t="s">
+        <v>196</v>
+      </c>
+      <c r="C205" t="s">
+        <v>524</v>
+      </c>
+      <c r="D205" t="s">
+        <v>199</v>
+      </c>
+      <c r="E205">
+        <v>4</v>
+      </c>
+      <c r="F205">
+        <v>4</v>
+      </c>
+      <c r="G205" t="s">
+        <v>426</v>
+      </c>
+      <c r="H205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>256</v>
+      </c>
+      <c r="B206" t="s">
+        <v>168</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206" t="s">
+        <v>364</v>
+      </c>
+      <c r="E206">
+        <v>4</v>
+      </c>
+      <c r="F206">
+        <v>4</v>
+      </c>
+      <c r="G206" t="s">
+        <v>425</v>
+      </c>
+      <c r="H206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>256</v>
+      </c>
+      <c r="B207" t="s">
+        <v>168</v>
+      </c>
+      <c r="C207" t="s">
+        <v>582</v>
+      </c>
+      <c r="D207" t="s">
+        <v>200</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="F207">
+        <v>4</v>
+      </c>
+      <c r="G207" t="s">
+        <v>426</v>
+      </c>
+      <c r="H207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>255</v>
+      </c>
+      <c r="B208" t="s">
+        <v>174</v>
+      </c>
+      <c r="C208" t="s">
+        <v>274</v>
+      </c>
+      <c r="D208" t="s">
+        <v>275</v>
+      </c>
+      <c r="E208" t="s">
+        <v>267</v>
+      </c>
+      <c r="F208" t="s">
+        <v>267</v>
+      </c>
+      <c r="G208" t="s">
+        <v>425</v>
+      </c>
+      <c r="H208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>255</v>
+      </c>
+      <c r="B209" t="s">
+        <v>174</v>
+      </c>
+      <c r="C209" t="s">
+        <v>442</v>
+      </c>
+      <c r="D209" t="s">
+        <v>203</v>
+      </c>
+      <c r="E209">
+        <v>4</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="G209" t="s">
+        <v>426</v>
+      </c>
+      <c r="H209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>255</v>
+      </c>
+      <c r="B210" t="s">
+        <v>174</v>
+      </c>
+      <c r="C210" t="s">
+        <v>445</v>
+      </c>
+      <c r="D210" t="s">
+        <v>204</v>
+      </c>
+      <c r="E210">
+        <v>3</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
+      </c>
+      <c r="G210" t="s">
+        <v>426</v>
+      </c>
+      <c r="H210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>254</v>
+      </c>
+      <c r="B211" t="s">
+        <v>174</v>
+      </c>
+      <c r="C211" t="s">
+        <v>270</v>
+      </c>
+      <c r="D211" t="s">
+        <v>271</v>
+      </c>
+      <c r="E211" t="s">
+        <v>267</v>
+      </c>
+      <c r="F211" t="s">
+        <v>267</v>
+      </c>
+      <c r="G211" t="s">
+        <v>425</v>
+      </c>
+      <c r="H211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>254</v>
+      </c>
+      <c r="B212" t="s">
+        <v>174</v>
+      </c>
+      <c r="C212" t="s">
+        <v>450</v>
+      </c>
+      <c r="D212" t="s">
+        <v>205</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="G212" t="s">
+        <v>426</v>
+      </c>
+      <c r="H212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>254</v>
+      </c>
+      <c r="B213" t="s">
+        <v>174</v>
+      </c>
+      <c r="C213" t="s">
+        <v>272</v>
+      </c>
+      <c r="D213" t="s">
+        <v>273</v>
+      </c>
+      <c r="E213" t="s">
+        <v>267</v>
+      </c>
+      <c r="F213" t="s">
+        <v>267</v>
+      </c>
+      <c r="G213" t="s">
+        <v>425</v>
+      </c>
+      <c r="H213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>254</v>
+      </c>
+      <c r="B214" t="s">
+        <v>174</v>
+      </c>
+      <c r="C214" t="s">
+        <v>449</v>
+      </c>
+      <c r="D214" t="s">
+        <v>206</v>
+      </c>
+      <c r="E214">
+        <v>3</v>
+      </c>
+      <c r="F214">
+        <v>3</v>
+      </c>
+      <c r="G214" t="s">
+        <v>426</v>
+      </c>
+      <c r="H214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>254</v>
+      </c>
+      <c r="B215" t="s">
+        <v>174</v>
+      </c>
+      <c r="C215" t="s">
+        <v>274</v>
+      </c>
+      <c r="D215" t="s">
+        <v>275</v>
+      </c>
+      <c r="E215" t="s">
+        <v>267</v>
+      </c>
+      <c r="F215" t="s">
+        <v>267</v>
+      </c>
+      <c r="G215" t="s">
+        <v>425</v>
+      </c>
+      <c r="H215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>254</v>
+      </c>
+      <c r="B216" t="s">
+        <v>174</v>
+      </c>
+      <c r="C216" t="s">
+        <v>451</v>
+      </c>
+      <c r="D216" t="s">
+        <v>207</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>2</v>
+      </c>
+      <c r="G216" t="s">
+        <v>426</v>
+      </c>
+      <c r="H216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>254</v>
+      </c>
+      <c r="B217" t="s">
+        <v>180</v>
+      </c>
+      <c r="C217" t="s">
+        <v>280</v>
+      </c>
+      <c r="D217" t="s">
+        <v>281</v>
+      </c>
+      <c r="E217">
+        <v>4</v>
+      </c>
+      <c r="F217">
+        <v>4</v>
+      </c>
+      <c r="G217" t="s">
+        <v>425</v>
+      </c>
+      <c r="H217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>254</v>
+      </c>
+      <c r="B218" t="s">
+        <v>180</v>
+      </c>
+      <c r="C218" t="s">
+        <v>459</v>
+      </c>
+      <c r="D218" t="s">
+        <v>208</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+      <c r="F218">
+        <v>4</v>
+      </c>
+      <c r="G218" t="s">
+        <v>426</v>
+      </c>
+      <c r="H218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>254</v>
+      </c>
+      <c r="B219" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219" t="s">
+        <v>317</v>
+      </c>
+      <c r="D219" t="s">
+        <v>318</v>
+      </c>
+      <c r="E219" t="s">
+        <v>284</v>
+      </c>
+      <c r="F219">
+        <v>4</v>
+      </c>
+      <c r="G219" t="s">
+        <v>425</v>
+      </c>
+      <c r="H219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>254</v>
+      </c>
+      <c r="B220" t="s">
+        <v>245</v>
+      </c>
+      <c r="C220" t="s">
+        <v>511</v>
+      </c>
+      <c r="D220" t="s">
+        <v>209</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <v>2</v>
+      </c>
+      <c r="G220" t="s">
+        <v>426</v>
+      </c>
+      <c r="H220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>254</v>
+      </c>
+      <c r="B221" t="s">
+        <v>261</v>
+      </c>
+      <c r="C221" t="s">
+        <v>510</v>
+      </c>
+      <c r="D221" t="s">
+        <v>210</v>
+      </c>
+      <c r="E221">
+        <v>4</v>
+      </c>
+      <c r="F221">
+        <v>4</v>
+      </c>
+      <c r="G221" t="s">
+        <v>426</v>
+      </c>
+      <c r="H221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>254</v>
+      </c>
+      <c r="B222" t="s">
+        <v>213</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>326</v>
+      </c>
+      <c r="E222" t="s">
+        <v>284</v>
+      </c>
+      <c r="F222" t="s">
+        <v>284</v>
+      </c>
+      <c r="G222" t="s">
+        <v>425</v>
+      </c>
+      <c r="H222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>254</v>
+      </c>
+      <c r="B223" t="s">
+        <v>213</v>
+      </c>
+      <c r="C223" t="s">
+        <v>525</v>
+      </c>
+      <c r="D223" t="s">
+        <v>214</v>
+      </c>
+      <c r="E223">
+        <v>3</v>
+      </c>
+      <c r="F223">
+        <v>4</v>
+      </c>
+      <c r="G223" t="s">
+        <v>426</v>
+      </c>
+      <c r="H223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>254</v>
+      </c>
+      <c r="B224" t="s">
+        <v>213</v>
+      </c>
+      <c r="C224" t="s">
+        <v>526</v>
+      </c>
+      <c r="D224" t="s">
+        <v>215</v>
+      </c>
+      <c r="E224">
+        <v>4</v>
+      </c>
+      <c r="F224">
+        <v>4</v>
+      </c>
+      <c r="G224" t="s">
+        <v>426</v>
+      </c>
+      <c r="H224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>254</v>
+      </c>
+      <c r="B225" t="s">
+        <v>216</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225" t="s">
+        <v>340</v>
+      </c>
+      <c r="E225">
+        <v>4</v>
+      </c>
+      <c r="F225">
+        <v>4</v>
+      </c>
+      <c r="G225" t="s">
+        <v>425</v>
+      </c>
+      <c r="H225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>254</v>
+      </c>
+      <c r="B226" t="s">
+        <v>216</v>
+      </c>
+      <c r="C226" t="s">
+        <v>543</v>
+      </c>
+      <c r="D226" t="s">
+        <v>217</v>
+      </c>
+      <c r="E226">
+        <v>4</v>
+      </c>
+      <c r="F226">
+        <v>4</v>
+      </c>
+      <c r="G226" t="s">
+        <v>426</v>
+      </c>
+      <c r="H226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>254</v>
+      </c>
+      <c r="B227" t="s">
+        <v>216</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227" t="s">
+        <v>342</v>
+      </c>
+      <c r="E227" t="s">
+        <v>284</v>
+      </c>
+      <c r="F227">
+        <v>4</v>
+      </c>
+      <c r="G227" t="s">
+        <v>425</v>
+      </c>
+      <c r="H227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>254</v>
+      </c>
+      <c r="B228" t="s">
+        <v>216</v>
+      </c>
+      <c r="C228" t="s">
+        <v>545</v>
+      </c>
+      <c r="D228" t="s">
+        <v>218</v>
+      </c>
+      <c r="E228">
+        <v>4</v>
+      </c>
+      <c r="F228">
+        <v>4</v>
+      </c>
+      <c r="G228" t="s">
+        <v>426</v>
+      </c>
+      <c r="H228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>254</v>
+      </c>
+      <c r="B229" t="s">
+        <v>216</v>
+      </c>
+      <c r="C229" t="s">
+        <v>343</v>
+      </c>
+      <c r="D229" t="s">
+        <v>344</v>
+      </c>
+      <c r="E229">
+        <v>4</v>
+      </c>
+      <c r="F229">
+        <v>4</v>
+      </c>
+      <c r="G229" t="s">
+        <v>425</v>
+      </c>
+      <c r="H229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>254</v>
+      </c>
+      <c r="B230" t="s">
+        <v>216</v>
+      </c>
+      <c r="C230" t="s">
+        <v>544</v>
+      </c>
+      <c r="D230" t="s">
+        <v>219</v>
+      </c>
+      <c r="E230">
+        <v>4</v>
+      </c>
+      <c r="F230">
+        <v>4</v>
+      </c>
+      <c r="G230" t="s">
+        <v>426</v>
+      </c>
+      <c r="H230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>254</v>
+      </c>
+      <c r="B231" t="s">
+        <v>157</v>
+      </c>
+      <c r="C231" t="s">
+        <v>351</v>
+      </c>
+      <c r="D231" t="s">
+        <v>352</v>
+      </c>
+      <c r="E231" t="s">
+        <v>284</v>
+      </c>
+      <c r="F231" t="s">
+        <v>284</v>
+      </c>
+      <c r="G231" t="s">
+        <v>425</v>
+      </c>
+      <c r="H231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>254</v>
+      </c>
+      <c r="B232" t="s">
+        <v>157</v>
+      </c>
+      <c r="C232" t="s">
+        <v>554</v>
+      </c>
+      <c r="D232" t="s">
+        <v>407</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+      <c r="F232">
+        <v>4</v>
+      </c>
+      <c r="G232" t="s">
+        <v>426</v>
+      </c>
+      <c r="H232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>254</v>
+      </c>
+      <c r="B233" t="s">
+        <v>168</v>
+      </c>
+      <c r="C233" t="s">
+        <v>361</v>
+      </c>
+      <c r="D233" t="s">
+        <v>362</v>
+      </c>
+      <c r="E233">
+        <v>4</v>
+      </c>
+      <c r="F233">
+        <v>4</v>
+      </c>
+      <c r="G233" t="s">
+        <v>425</v>
+      </c>
+      <c r="H233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>254</v>
+      </c>
+      <c r="B234" t="s">
+        <v>168</v>
+      </c>
+      <c r="C234" t="s">
+        <v>594</v>
+      </c>
+      <c r="D234" t="s">
+        <v>221</v>
+      </c>
+      <c r="E234">
+        <v>3</v>
+      </c>
+      <c r="F234">
+        <v>4</v>
+      </c>
+      <c r="G234" t="s">
+        <v>426</v>
+      </c>
+      <c r="H234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>254</v>
+      </c>
+      <c r="B235" t="s">
+        <v>168</v>
+      </c>
+      <c r="C235" t="s">
+        <v>591</v>
+      </c>
+      <c r="D235" t="s">
+        <v>222</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>3</v>
+      </c>
+      <c r="G235" t="s">
+        <v>426</v>
+      </c>
+      <c r="H235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>254</v>
+      </c>
+      <c r="B236" t="s">
+        <v>168</v>
+      </c>
+      <c r="C236" t="s">
+        <v>589</v>
+      </c>
+      <c r="D236" t="s">
+        <v>223</v>
+      </c>
+      <c r="E236">
+        <v>4</v>
+      </c>
+      <c r="F236">
+        <v>4</v>
+      </c>
+      <c r="G236" t="s">
+        <v>426</v>
+      </c>
+      <c r="H236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>254</v>
+      </c>
+      <c r="B237" t="s">
+        <v>168</v>
+      </c>
+      <c r="C237" t="s">
+        <v>588</v>
+      </c>
+      <c r="D237" t="s">
+        <v>224</v>
+      </c>
+      <c r="E237">
+        <v>3</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+      <c r="G237" t="s">
+        <v>426</v>
+      </c>
+      <c r="H237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>254</v>
+      </c>
+      <c r="B238" t="s">
+        <v>168</v>
+      </c>
+      <c r="C238" t="s">
+        <v>597</v>
+      </c>
+      <c r="D238" t="s">
+        <v>226</v>
+      </c>
+      <c r="E238">
+        <v>3</v>
+      </c>
+      <c r="F238">
+        <v>4</v>
+      </c>
+      <c r="G238" t="s">
+        <v>426</v>
+      </c>
+      <c r="H238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>254</v>
+      </c>
+      <c r="B239" t="s">
+        <v>168</v>
+      </c>
+      <c r="C239" t="s">
+        <v>365</v>
+      </c>
+      <c r="D239" t="s">
+        <v>366</v>
+      </c>
+      <c r="E239" t="s">
+        <v>284</v>
+      </c>
+      <c r="F239" t="s">
+        <v>284</v>
+      </c>
+      <c r="G239" t="s">
+        <v>425</v>
+      </c>
+      <c r="H239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>254</v>
+      </c>
+      <c r="B240" t="s">
+        <v>168</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240" t="s">
+        <v>228</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+      <c r="G240" t="s">
+        <v>426</v>
+      </c>
+      <c r="H240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>254</v>
+      </c>
+      <c r="B241" t="s">
+        <v>168</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241" t="s">
+        <v>231</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
+      </c>
+      <c r="F241">
+        <v>3</v>
+      </c>
+      <c r="G241" t="s">
+        <v>426</v>
+      </c>
+      <c r="H241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>253</v>
+      </c>
+      <c r="B242" t="s">
+        <v>232</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>320</v>
+      </c>
+      <c r="E242" t="s">
+        <v>284</v>
+      </c>
+      <c r="F242">
+        <v>4</v>
+      </c>
+      <c r="G242" t="s">
+        <v>425</v>
+      </c>
+      <c r="H242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>253</v>
+      </c>
+      <c r="B243" t="s">
+        <v>232</v>
+      </c>
+      <c r="C243" t="s">
+        <v>503</v>
+      </c>
+      <c r="D243" t="s">
+        <v>234</v>
+      </c>
+      <c r="E243">
+        <v>4</v>
+      </c>
+      <c r="F243">
+        <v>4</v>
+      </c>
+      <c r="G243" t="s">
+        <v>426</v>
+      </c>
+      <c r="H243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>253</v>
+      </c>
+      <c r="B244" t="s">
+        <v>232</v>
+      </c>
+      <c r="C244" t="s">
+        <v>329</v>
+      </c>
+      <c r="D244" t="s">
+        <v>330</v>
+      </c>
+      <c r="E244" t="s">
+        <v>284</v>
+      </c>
+      <c r="F244" t="s">
+        <v>284</v>
+      </c>
+      <c r="G244" t="s">
+        <v>425</v>
+      </c>
+      <c r="H244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>253</v>
+      </c>
+      <c r="B245" t="s">
+        <v>235</v>
+      </c>
+      <c r="C245" t="s">
+        <v>522</v>
+      </c>
+      <c r="D245" t="s">
+        <v>236</v>
+      </c>
+      <c r="E245">
+        <v>4</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+      <c r="G245" t="s">
+        <v>426</v>
+      </c>
+      <c r="H245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>253</v>
+      </c>
+      <c r="B246" t="s">
+        <v>216</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>350</v>
+      </c>
+      <c r="E246" t="s">
+        <v>284</v>
+      </c>
+      <c r="F246">
+        <v>4</v>
+      </c>
+      <c r="G246" t="s">
+        <v>425</v>
+      </c>
+      <c r="H246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>253</v>
+      </c>
+      <c r="B247" t="s">
+        <v>216</v>
+      </c>
+      <c r="C247" t="s">
+        <v>541</v>
+      </c>
+      <c r="D247" t="s">
+        <v>237</v>
+      </c>
+      <c r="E247">
+        <v>3</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
+      </c>
+      <c r="G247" t="s">
+        <v>426</v>
+      </c>
+      <c r="H247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>253</v>
+      </c>
+      <c r="B248" t="s">
+        <v>168</v>
+      </c>
+      <c r="C248" t="s">
+        <v>365</v>
+      </c>
+      <c r="D248" t="s">
+        <v>366</v>
+      </c>
+      <c r="E248" t="s">
+        <v>284</v>
+      </c>
+      <c r="F248" t="s">
+        <v>284</v>
+      </c>
+      <c r="G248" t="s">
+        <v>425</v>
+      </c>
+      <c r="H248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>253</v>
+      </c>
+      <c r="B249" t="s">
+        <v>168</v>
+      </c>
+      <c r="C249" t="s">
+        <v>580</v>
+      </c>
+      <c r="D249" t="s">
+        <v>240</v>
+      </c>
+      <c r="E249">
+        <v>4</v>
+      </c>
+      <c r="F249">
+        <v>4</v>
+      </c>
+      <c r="G249" t="s">
+        <v>426</v>
+      </c>
+      <c r="H249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" t="s">
+        <v>168</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250" t="s">
+        <v>368</v>
+      </c>
+      <c r="E250">
+        <v>4</v>
+      </c>
+      <c r="F250">
+        <v>4</v>
+      </c>
+      <c r="G250" t="s">
+        <v>425</v>
+      </c>
+      <c r="H250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>253</v>
+      </c>
+      <c r="B251" t="s">
+        <v>168</v>
+      </c>
+      <c r="C251" t="s">
+        <v>584</v>
+      </c>
+      <c r="D251" t="s">
+        <v>242</v>
+      </c>
+      <c r="E251">
+        <v>3</v>
+      </c>
+      <c r="F251">
+        <v>4</v>
+      </c>
+      <c r="G251" t="s">
+        <v>426</v>
+      </c>
+      <c r="H251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="s">
+        <v>168</v>
+      </c>
+      <c r="C252" t="s">
+        <v>585</v>
+      </c>
+      <c r="D252" t="s">
+        <v>243</v>
+      </c>
+      <c r="E252">
+        <v>3</v>
+      </c>
+      <c r="F252">
+        <v>4</v>
+      </c>
+      <c r="G252" t="s">
+        <v>426</v>
+      </c>
+      <c r="H252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" t="s">
+        <v>168</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253" t="s">
+        <v>244</v>
+      </c>
+      <c r="E253">
+        <v>3</v>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+      <c r="G253" t="s">
+        <v>426</v>
+      </c>
+      <c r="H253">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E054AB5-2273-2340-87EF-D763046EC5F2}">
   <dimension ref="A1:H187"/>
   <sheetViews>

--- a/diagnosa_x_intervensi.xlsx
+++ b/diagnosa_x_intervensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusup/Projects/node/react/sim-cpkp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ED3A4E-EB27-D643-B368-9B8B7CC3E64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183696E-9773-E74E-9786-4BA6A751754D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{810CA097-E161-4948-8238-A0A93C309FD5}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6151" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6153" uniqueCount="730">
   <si>
     <t xml:space="preserve"> D.0001 Bersihan Jalan Napas Tidak Efektif </t>
   </si>
@@ -24057,11 +24057,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F160D95-B3A9-9B48-97B2-4146F9D382A9}">
   <dimension ref="A1:H253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="84.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -26084,8 +26087,8 @@
       <c r="F78">
         <v>4</v>
       </c>
-      <c r="G78">
-        <v>0</v>
+      <c r="G78" t="s">
+        <v>425</v>
       </c>
       <c r="H78">
         <v>77</v>
@@ -26595,8 +26598,8 @@
       <c r="C98">
         <v>0</v>
       </c>
-      <c r="D98">
-        <v>0</v>
+      <c r="D98" t="s">
+        <v>102</v>
       </c>
       <c r="E98" t="s">
         <v>284</v>

--- a/diagnosa_x_intervensi.xlsx
+++ b/diagnosa_x_intervensi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yusup/Projects/node/react/sim-cpkp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183696E-9773-E74E-9786-4BA6A751754D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38883616-9AE5-B44D-A220-295D6C1DA34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{810CA097-E161-4948-8238-A0A93C309FD5}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16440" activeTab="4" xr2:uid="{810CA097-E161-4948-8238-A0A93C309FD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6153" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6161" uniqueCount="732">
   <si>
     <t xml:space="preserve"> D.0001 Bersihan Jalan Napas Tidak Efektif </t>
   </si>
@@ -2847,6 +2847,12 @@
   </si>
   <si>
     <t>Penyuluhan dan pembelajaran</t>
+  </si>
+  <si>
+    <t>Perawatan,intra operatif</t>
+  </si>
+  <si>
+    <t>Perawatan  pasca operatif</t>
   </si>
 </sst>
 </file>
@@ -24055,10 +24061,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F160D95-B3A9-9B48-97B2-4146F9D382A9}">
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="D243" sqref="D243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30291,7 +30297,7 @@
         <v>0</v>
       </c>
       <c r="D240" t="s">
-        <v>228</v>
+        <v>420</v>
       </c>
       <c r="E240">
         <v>3</v>
@@ -30317,7 +30323,7 @@
         <v>0</v>
       </c>
       <c r="D241" t="s">
-        <v>231</v>
+        <v>730</v>
       </c>
       <c r="E241">
         <v>3</v>
@@ -30329,59 +30335,59 @@
         <v>426</v>
       </c>
       <c r="H241">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B242" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242" t="s">
-        <v>320</v>
-      </c>
-      <c r="E242" t="s">
-        <v>284</v>
+        <v>731</v>
+      </c>
+      <c r="E242">
+        <v>3</v>
       </c>
       <c r="F242">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G242" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H242">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B243" t="s">
-        <v>232</v>
-      </c>
-      <c r="C243" t="s">
-        <v>503</v>
+        <v>168</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
       </c>
       <c r="D243" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G243" t="s">
         <v>426</v>
       </c>
       <c r="H243">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -30391,23 +30397,23 @@
       <c r="B244" t="s">
         <v>232</v>
       </c>
-      <c r="C244" t="s">
-        <v>329</v>
+      <c r="C244">
+        <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E244" t="s">
         <v>284</v>
       </c>
-      <c r="F244" t="s">
-        <v>284</v>
+      <c r="F244">
+        <v>4</v>
       </c>
       <c r="G244" t="s">
         <v>425</v>
       </c>
       <c r="H244">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -30415,13 +30421,13 @@
         <v>253</v>
       </c>
       <c r="B245" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C245" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="D245" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E245">
         <v>4</v>
@@ -30433,7 +30439,7 @@
         <v>426</v>
       </c>
       <c r="H245">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -30441,25 +30447,25 @@
         <v>253</v>
       </c>
       <c r="B246" t="s">
-        <v>216</v>
-      </c>
-      <c r="C246">
-        <v>0</v>
+        <v>232</v>
+      </c>
+      <c r="C246" t="s">
+        <v>329</v>
       </c>
       <c r="D246" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E246" t="s">
         <v>284</v>
       </c>
-      <c r="F246">
-        <v>4</v>
+      <c r="F246" t="s">
+        <v>284</v>
       </c>
       <c r="G246" t="s">
         <v>425</v>
       </c>
       <c r="H246">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -30467,16 +30473,16 @@
         <v>253</v>
       </c>
       <c r="B247" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C247" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="D247" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F247">
         <v>4</v>
@@ -30485,7 +30491,7 @@
         <v>426</v>
       </c>
       <c r="H247">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -30493,25 +30499,25 @@
         <v>253</v>
       </c>
       <c r="B248" t="s">
-        <v>168</v>
-      </c>
-      <c r="C248" t="s">
-        <v>365</v>
+        <v>216</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
       </c>
       <c r="D248" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E248" t="s">
         <v>284</v>
       </c>
-      <c r="F248" t="s">
-        <v>284</v>
+      <c r="F248">
+        <v>4</v>
       </c>
       <c r="G248" t="s">
         <v>425</v>
       </c>
       <c r="H248">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -30519,16 +30525,16 @@
         <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="C249" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
       <c r="D249" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E249">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F249">
         <v>4</v>
@@ -30537,7 +30543,7 @@
         <v>426</v>
       </c>
       <c r="H249">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -30547,23 +30553,23 @@
       <c r="B250" t="s">
         <v>168</v>
       </c>
-      <c r="C250">
-        <v>0</v>
+      <c r="C250" t="s">
+        <v>365</v>
       </c>
       <c r="D250" t="s">
-        <v>368</v>
-      </c>
-      <c r="E250">
-        <v>4</v>
-      </c>
-      <c r="F250">
-        <v>4</v>
+        <v>366</v>
+      </c>
+      <c r="E250" t="s">
+        <v>284</v>
+      </c>
+      <c r="F250" t="s">
+        <v>284</v>
       </c>
       <c r="G250" t="s">
         <v>425</v>
       </c>
       <c r="H250">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -30574,13 +30580,13 @@
         <v>168</v>
       </c>
       <c r="C251" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D251" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E251">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F251">
         <v>4</v>
@@ -30589,7 +30595,7 @@
         <v>426</v>
       </c>
       <c r="H251">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -30599,23 +30605,23 @@
       <c r="B252" t="s">
         <v>168</v>
       </c>
-      <c r="C252" t="s">
-        <v>585</v>
+      <c r="C252">
+        <v>0</v>
       </c>
       <c r="D252" t="s">
-        <v>243</v>
+        <v>368</v>
       </c>
       <c r="E252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F252">
         <v>4</v>
       </c>
       <c r="G252" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H252">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -30625,11 +30631,11 @@
       <c r="B253" t="s">
         <v>168</v>
       </c>
-      <c r="C253">
-        <v>0</v>
+      <c r="C253" t="s">
+        <v>584</v>
       </c>
       <c r="D253" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E253">
         <v>3</v>
@@ -30641,6 +30647,58 @@
         <v>426</v>
       </c>
       <c r="H253">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>168</v>
+      </c>
+      <c r="C254" t="s">
+        <v>585</v>
+      </c>
+      <c r="D254" t="s">
+        <v>243</v>
+      </c>
+      <c r="E254">
+        <v>3</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
+      </c>
+      <c r="G254" t="s">
+        <v>426</v>
+      </c>
+      <c r="H254">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>168</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255" t="s">
+        <v>244</v>
+      </c>
+      <c r="E255">
+        <v>3</v>
+      </c>
+      <c r="F255">
+        <v>4</v>
+      </c>
+      <c r="G255" t="s">
+        <v>426</v>
+      </c>
+      <c r="H255">
         <v>252</v>
       </c>
     </row>
